--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>汇丰晋信中小盘低波动策略股票C</t>
   </si>
   <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
     <t>91.77</t>
   </si>
   <si>
     <t>2.30</t>
+  </si>
+  <si>
+    <t>0.0812</t>
+  </si>
+  <si>
+    <t>0.0030</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009658</t>
-  </si>
-  <si>
-    <t>009775</t>
-  </si>
-  <si>
-    <t>汇丰晋信中小盘低波动策略股票A</t>
-  </si>
-  <si>
-    <t>汇丰晋信中小盘低波动策略股票C</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>91.77</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>0.0812</t>
-  </si>
-  <si>
-    <t>0.0030</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1699,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,133 +456,569 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -609,7 +1045,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +1075,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>350002</t>
+          <t>013233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天治低碳经济灵活配置混合</t>
+          <t>华夏中证500指数智选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.5646</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0946</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +1151,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>013234</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>华夏中证500指数智选增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +1189,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -791,205 +1227,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1250,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013233</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强A</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>80.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5646</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1339,36 +1605,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1377,111 +1643,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013234</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强C</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1496,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,7 +1707,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1547,36 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.64</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3943</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1585,36 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013233</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强A</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3855</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1623,36 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1347</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1661,36 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1699,226 +1889,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013234</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强C</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501219</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014198</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1932,128 +1932,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002203-海亮股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1011,252 +1236,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>013233</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证500指数智选增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5646</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013234</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证500指数智选增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1321,36 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>350002</t>
+          <t>013233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天治低碳经济灵活配置混合</t>
+          <t>华夏中证500指数智选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1139</t>
+          <t>0.5646</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1359,22 +1338,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1384,11 +1363,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1104</t>
+          <t>0.0946</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1397,36 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>013234</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>华夏中证500指数智选增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0995</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1435,36 +1414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>350002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>天治低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1473,36 +1452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002872</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票C</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1511,6 +1490,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
